--- a/Data/datos_qa.xlsx
+++ b/Data/datos_qa.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF65EC0-04DF-4F4C-A1EA-194308BB31BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>origen</t>
   </si>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,23 +373,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>45453</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45455</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF23A453-CBDB-4C11-910F-6FA54A11429F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -412,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>45442</v>
+        <v>45453</v>
       </c>
       <c r="D2" s="1">
-        <v>45450</v>
+        <v>45455</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -423,7 +483,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DA6BDBA5-5D0F-4357-A6D4-90A1DD6D316F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
